--- a/AdultIncome/Performance_metrics/model_perf_metrics_merged_only_with_cfs_LR_Traning_on_X_fit.xlsx
+++ b/AdultIncome/Performance_metrics/model_perf_metrics_merged_only_with_cfs_LR_Traning_on_X_fit.xlsx
@@ -502,10 +502,10 @@
         <v>27133</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999031224383337</v>
+        <v>0.9993296089385475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9991318422101362</v>
+        <v>0.9994797114832115</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>27133</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5966478564810915</v>
+        <v>0.3826314071172054</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7241817072048653</v>
+        <v>0.6133632875616863</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.8055555555555555</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9387755102040816</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7857142857142857</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8936170212765958</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9791666666666667</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
